--- a/medicine/Nettoyage et hygiène/Liquide_vaisselle/Liquide_vaisselle.xlsx
+++ b/medicine/Nettoyage et hygiène/Liquide_vaisselle/Liquide_vaisselle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le liquide vaisselle (ou liquide à vaisselle au Québec) est un détergent liquide utilisé pour laver la vaisselle. Il est doté de propriétés tensioactives afin d'enlever les graisses alimentaires et les salissures.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les produits vaisselle sont surtout efficaces sur les taches de graisses et de protéines. Ils le sont peu sur les taches dues aux sucres.[réf. nécessaire]
 Il peut aussi se rencontrer sous forme de poudre à vaisselle, spécialement pour les lave-vaisselle, en effet, le liquide utilisé pour laver la vaisselle à la main ne doit pas être utilisé en machine, car il produirait une mousse considérable. Le lave-vaisselle requiert un produit spécifique à base de tensio-actifs non moussants.
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,6 +586,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -596,6 +614,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
